--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\GitHub\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8EA4D-CD3B-4861-8068-A244918621DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6DED7F-A4C6-4277-82B0-CFE9D1E4D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,35 +36,27 @@
     <t>Mensaje Presidencial 1 de junio de 2021</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso1.txt</t>
-  </si>
-  <si>
     <t>Mensaje Presidencial 31 de julio de 2020</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso2.txt</t>
-  </si>
-  <si>
     <t>Mensaje Presidencial 1 de Junio de 2019</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso3.txt</t>
+    <t>https://github.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso1.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso2.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso3.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,22 +78,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.5"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <u/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Roboto Lt"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,20 +112,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -456,57 +449,59 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="57" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="57" style="2"/>
+    <col min="2" max="2" width="119.88671875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="57" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.399999999999999">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="E9" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BE241D7B-5325-4402-B538-AFB2BEE70FD5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{873335D2-9C4B-4E34-9BB1-B0FDAA046311}"/>

--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\GitHub\ds_insumos_wordcloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6DED7F-A4C6-4277-82B0-CFE9D1E4D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8EA4D-CD3B-4861-8068-A244918621DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,35 @@
     <t>Mensaje Presidencial 1 de junio de 2021</t>
   </si>
   <si>
+    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso1.txt</t>
+  </si>
+  <si>
     <t>Mensaje Presidencial 31 de julio de 2020</t>
   </si>
   <si>
+    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso2.txt</t>
+  </si>
+  <si>
     <t>Mensaje Presidencial 1 de Junio de 2019</t>
   </si>
   <si>
-    <t>https://github.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso1.txt</t>
-  </si>
-  <si>
-    <t>https://github.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso2.txt</t>
-  </si>
-  <si>
-    <t>https://github.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso3.txt</t>
+    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso3.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
+  <fonts count="7">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,19 +86,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Roboto Lt"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,24 +123,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -449,59 +456,57 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="57" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57" style="2"/>
-    <col min="2" max="2" width="119.88671875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="57" style="2"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="20.399999999999999">
       <c r="A5" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E9" s="5"/>
+    <row r="8" spans="1:6">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BE241D7B-5325-4402-B538-AFB2BEE70FD5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{873335D2-9C4B-4E34-9BB1-B0FDAA046311}"/>

--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9937f86877348e7/Documentos/GitHub/ds_insumos_wordcloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8EA4D-CD3B-4861-8068-A244918621DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{66E8EA4D-CD3B-4861-8068-A244918621DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AF3224-2E2A-457F-B4D4-D096F1274D55}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="8832" yWindow="0" windowWidth="15840" windowHeight="12672" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>textos</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Mensaje Presidencial 1 de junio de 2021</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso1.txt</t>
-  </si>
-  <si>
     <t>Mensaje Presidencial 31 de julio de 2020</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso3.txt</t>
+  </si>
+  <si>
+    <t>rimbaud</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso1.txt</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -477,27 +480,29 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.399999999999999">
-      <c r="A5" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="F8" s="1"/>

--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9937f86877348e7/Documentos/GitHub/ds_insumos_wordcloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{66E8EA4D-CD3B-4861-8068-A244918621DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AF3224-2E2A-457F-B4D4-D096F1274D55}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{66E8EA4D-CD3B-4861-8068-A244918621DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69A0DEB-B57D-4351-8F7C-11FD8F0B8A65}"/>
   <bookViews>
-    <workbookView xWindow="8832" yWindow="0" windowWidth="15840" windowHeight="12672" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="4032" yWindow="288" windowWidth="15840" windowHeight="12672" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>rimbaud</t>
   </si>
   <si>
-    <t>https://github.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso1.txt</t>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso1.txt</t>
   </si>
 </sst>
 </file>

--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9937f86877348e7/Documentos/GitHub/ds_insumos_wordcloud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\GitHub\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{66E8EA4D-CD3B-4861-8068-A244918621DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69A0DEB-B57D-4351-8F7C-11FD8F0B8A65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E99681-9152-4A4B-9621-843C10054FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4032" yWindow="288" windowWidth="15840" windowHeight="12672" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="5736" yWindow="0" windowWidth="15840" windowHeight="12672" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>rimbaud</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/blob/main/discurso1.txt</t>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/discurso1.txt</t>
   </si>
 </sst>
 </file>

--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\GitHub\ds_insumos_wordcloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9937f86877348e7/Documentos/GitHub/ds_insumos_wordcloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E99681-9152-4A4B-9621-843C10054FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{76E99681-9152-4A4B-9621-843C10054FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88890704-030E-4E98-A86C-FF20876C23EB}"/>
   <bookViews>
     <workbookView xWindow="5736" yWindow="0" windowWidth="15840" windowHeight="12672" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>rimbaud</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/discurso1.txt</t>
+    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso1.txt</t>
   </si>
 </sst>
 </file>

--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9937f86877348e7/Documentos/GitHub/ds_insumos_wordcloud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\GitHub\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{76E99681-9152-4A4B-9621-843C10054FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88890704-030E-4E98-A86C-FF20876C23EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F06924-30D9-44A7-86CE-4AB18BD7017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="0" windowWidth="15840" windowHeight="12672" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -58,16 +58,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,22 +81,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.5"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Roboto Lt"/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <u/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,20 +123,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -459,65 +460,65 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="64.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="1" max="16384" width="64.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.399999999999999">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="E9" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BE241D7B-5325-4402-B538-AFB2BEE70FD5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{873335D2-9C4B-4E34-9BB1-B0FDAA046311}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{5D351A8B-43BB-4694-A3D9-ED5302AC2EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\GitHub\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F06924-30D9-44A7-86CE-4AB18BD7017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEB0688-5384-4BA9-B883-1AC4EDCE9055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="1056" yWindow="1536" windowWidth="18036" windowHeight="10740" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>textos</t>
   </si>
@@ -48,10 +48,7 @@
     <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso3.txt</t>
   </si>
   <si>
-    <t>rimbaud</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso1.txt</t>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/discurso1.txt</t>
   </si>
 </sst>
 </file>
@@ -125,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -140,6 +137,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="64.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -480,8 +480,8 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -501,9 +501,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F8" s="5"/>

--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\GitHub\ds_insumos_wordcloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9937f86877348e7/Documentos/GitHub/ds_insumos_wordcloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEB0688-5384-4BA9-B883-1AC4EDCE9055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BEEB0688-5384-4BA9-B883-1AC4EDCE9055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F56CFACC-7A64-400A-AD0B-DE6A80902AEE}"/>
   <bookViews>
     <workbookView xWindow="1056" yWindow="1536" windowWidth="18036" windowHeight="10740" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -39,23 +39,23 @@
     <t>Mensaje Presidencial 31 de julio de 2020</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso2.txt</t>
-  </si>
-  <si>
     <t>Mensaje Presidencial 1 de Junio de 2019</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/VictorEnamorado/prueba_nube/main/discurso3.txt</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/discurso1.txt</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/discurso2.txt</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/discurso3.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,14 +80,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -130,13 +122,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -460,7 +449,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="64.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -480,34 +469,34 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
